--- a/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
+++ b/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T14:12:46+00:00</t>
+    <t>2025-07-15T14:53:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
+++ b/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T14:53:59+00:00</t>
+    <t>2025-07-16T07:55:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
+++ b/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T07:55:12+00:00</t>
+    <t>2025-07-16T09:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
+++ b/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T09:38:26+00:00</t>
+    <t>2025-07-23T16:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
+++ b/cp-identifier/ig/CodeSystem-eclaire-study-population-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T16:41:09+00:00</t>
+    <t>2025-07-23T16:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
